--- a/data/cascade.xlsx
+++ b/data/cascade.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="1" r:id="rId1"/>
-    <sheet name="Cascade Characteristics" sheetId="4" r:id="rId2"/>
+    <sheet name="Characteristics" sheetId="4" r:id="rId2"/>
     <sheet name="Transitions" sheetId="2" r:id="rId3"/>
-    <sheet name="Transition Parameters" sheetId="3" r:id="rId4"/>
+    <sheet name="Parameters" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="351">
   <si>
     <t>Code Label</t>
   </si>
@@ -301,9 +301,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Tag</t>
-  </si>
-  <si>
     <t>Vaccination Rate</t>
   </si>
   <si>
@@ -1067,6 +1064,12 @@
   </si>
   <si>
     <t>Death Rate (General)</t>
+  </si>
+  <si>
+    <t>Transition Tag</t>
+  </si>
+  <si>
+    <t>Entry Point</t>
   </si>
 </sst>
 </file>
@@ -1600,13 +1603,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1617,7 +1620,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1628,7 +1631,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1639,7 +1642,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1647,21 +1650,21 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s">
         <v>207</v>
       </c>
-      <c r="B6" t="s">
-        <v>208</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1672,7 +1675,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1680,21 +1683,21 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
         <v>209</v>
       </c>
-      <c r="B9" t="s">
-        <v>210</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1705,7 +1708,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1716,7 +1719,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1724,21 +1727,21 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
         <v>211</v>
       </c>
-      <c r="B13" t="s">
-        <v>212</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1749,7 +1752,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1757,21 +1760,21 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" t="s">
         <v>213</v>
       </c>
-      <c r="B16" t="s">
-        <v>214</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1782,7 +1785,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1790,21 +1793,21 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" t="s">
         <v>215</v>
       </c>
-      <c r="B19" t="s">
-        <v>216</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1815,7 +1818,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1826,7 +1829,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1834,21 +1837,21 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" t="s">
         <v>217</v>
       </c>
-      <c r="B23" t="s">
-        <v>218</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1859,7 +1862,7 @@
         <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1867,21 +1870,21 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" t="s">
         <v>219</v>
       </c>
-      <c r="B26" t="s">
-        <v>220</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1892,7 +1895,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1900,21 +1903,21 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" t="s">
         <v>221</v>
       </c>
-      <c r="B29" t="s">
-        <v>222</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1925,7 +1928,7 @@
         <v>34</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1936,38 +1939,38 @@
         <v>36</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1978,10 +1981,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1990,27 +1993,28 @@
     <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2018,146 +2022,149 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>212</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>218</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>209</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="H5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I5" t="s">
         <v>330</v>
       </c>
-      <c r="B3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>211</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>213</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" t="s">
-        <v>215</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>331</v>
       </c>
-      <c r="B4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>217</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>219</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>221</v>
-      </c>
-      <c r="P4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G5" t="s">
-        <v>330</v>
-      </c>
-      <c r="H5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>332</v>
-      </c>
       <c r="B6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2165,104 +2172,107 @@
       <c r="D6" s="2">
         <v>1000000</v>
       </c>
-      <c r="G6" t="s">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>35</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L6" t="s">
         <v>328</v>
       </c>
-      <c r="K6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F7" t="s">
-        <v>332</v>
+      <c r="F7" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="G7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F8" t="s">
-        <v>332</v>
+      <c r="F8" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="G8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="H8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F9" t="s">
-        <v>332</v>
+      <c r="F9" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="G9" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F10" t="s">
-        <v>332</v>
+      <c r="F10" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="G10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L12" s="15"/>
+        <v>331</v>
+      </c>
+      <c r="H10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M12" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2298,7 +2308,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>13</v>
@@ -2307,7 +2317,7 @@
         <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>14</v>
@@ -2319,7 +2329,7 @@
         <v>17</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>18</v>
@@ -2328,7 +2338,7 @@
         <v>20</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>21</v>
@@ -2337,7 +2347,7 @@
         <v>22</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>23</v>
@@ -2349,7 +2359,7 @@
         <v>26</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X1" s="5" t="s">
         <v>27</v>
@@ -2358,7 +2368,7 @@
         <v>28</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>29</v>
@@ -2367,7 +2377,7 @@
         <v>30</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>31</v>
@@ -2376,10 +2386,10 @@
         <v>35</v>
       </c>
       <c r="AF1" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -2422,7 +2432,7 @@
       <c r="AE2" s="6"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -2463,7 +2473,7 @@
       <c r="AE3" s="9"/>
       <c r="AF3" s="10"/>
       <c r="AG3" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -2506,7 +2516,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="10"/>
       <c r="AG4" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
@@ -2518,14 +2528,14 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
@@ -2537,7 +2547,7 @@
       <c r="S5" s="10"/>
       <c r="T5" s="11"/>
       <c r="U5" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
@@ -2551,12 +2561,12 @@
       <c r="AE5" s="9"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -2596,7 +2606,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
@@ -2643,7 +2653,7 @@
       </c>
       <c r="AF7" s="10"/>
       <c r="AG7" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -2658,11 +2668,11 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -2674,7 +2684,7 @@
       <c r="S8" s="10"/>
       <c r="T8" s="11"/>
       <c r="U8" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
@@ -2688,12 +2698,12 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -2733,7 +2743,7 @@
       <c r="AE9" s="9"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
@@ -2780,7 +2790,7 @@
       </c>
       <c r="AF10" s="13"/>
       <c r="AG10" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
@@ -2825,7 +2835,7 @@
       <c r="AE11" s="6"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
@@ -2844,7 +2854,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -2865,15 +2875,15 @@
       <c r="AD12" s="11"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG12" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -2911,7 +2921,7 @@
         <v>81</v>
       </c>
       <c r="AG13" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
@@ -2956,7 +2966,7 @@
         <v>82</v>
       </c>
       <c r="AG14" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
@@ -2978,7 +2988,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -2996,15 +3006,15 @@
       <c r="AD15" s="11"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG15" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -3042,7 +3052,7 @@
         <v>83</v>
       </c>
       <c r="AG16" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
@@ -3087,7 +3097,7 @@
         <v>84</v>
       </c>
       <c r="AG17" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
@@ -3112,7 +3122,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T18" s="11"/>
       <c r="U18" s="9"/>
@@ -3127,15 +3137,15 @@
       <c r="AD18" s="11"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG18" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -3173,7 +3183,7 @@
         <v>85</v>
       </c>
       <c r="AG19" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
@@ -3218,7 +3228,7 @@
         <v>86</v>
       </c>
       <c r="AG20" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
@@ -3263,7 +3273,7 @@
       <c r="AE21" s="6"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
@@ -3292,7 +3302,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="10"/>
       <c r="W22" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
@@ -3303,15 +3313,15 @@
       <c r="AD22" s="11"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG22" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -3349,7 +3359,7 @@
         <v>87</v>
       </c>
       <c r="AG23" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
@@ -3394,7 +3404,7 @@
         <v>88</v>
       </c>
       <c r="AG24" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
@@ -3426,7 +3436,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
@@ -3434,15 +3444,15 @@
       <c r="AD25" s="11"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG25" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
@@ -3480,7 +3490,7 @@
         <v>89</v>
       </c>
       <c r="AG26" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
@@ -3525,7 +3535,7 @@
         <v>90</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
@@ -3560,20 +3570,20 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AD28" s="11"/>
       <c r="AE28" s="9"/>
       <c r="AF28" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG28" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -3611,7 +3621,7 @@
         <v>91</v>
       </c>
       <c r="AG29" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
@@ -3656,7 +3666,7 @@
         <v>92</v>
       </c>
       <c r="AG30" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
@@ -3697,12 +3707,12 @@
       <c r="AE31" s="6"/>
       <c r="AF31" s="7"/>
       <c r="AG31" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
@@ -3739,7 +3749,7 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
@@ -3783,14 +3793,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
@@ -3801,27 +3811,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>94</v>
+        <v>349</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3829,13 +3839,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2">
         <v>0.5</v>
@@ -3846,13 +3856,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -3860,13 +3870,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2">
         <v>0.5</v>
@@ -3877,24 +3887,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2">
         <v>0.5</v>
@@ -3902,134 +3912,134 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D19" s="2">
         <v>0.5</v>
@@ -4037,101 +4047,101 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" s="2">
         <v>0.5</v>
@@ -4139,35 +4149,35 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D31" s="2">
         <v>0.5</v>
@@ -4175,13 +4185,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" s="2">
         <v>0.5</v>
@@ -4189,24 +4199,24 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" s="2">
         <v>0.5</v>
@@ -4214,464 +4224,464 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C63" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C70" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C73" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C76" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E76" s="2">
         <v>2</v>

--- a/data/cascade.xlsx
+++ b/data/cascade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="410">
   <si>
     <t>Code Label</t>
   </si>
@@ -1236,6 +1236,18 @@
   </si>
   <si>
     <t>check+check</t>
+  </si>
+  <si>
+    <t>spd_prev</t>
+  </si>
+  <si>
+    <t>SP DS Prevalence</t>
+  </si>
+  <si>
+    <t>snd_prev</t>
+  </si>
+  <si>
+    <t>SN DS Prevalence</t>
   </si>
 </sst>
 </file>
@@ -3862,10 +3874,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4179,6 +4191,9 @@
       <c r="C13" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="E13" s="2">
+        <v>0.2</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>114</v>
       </c>
@@ -4324,8 +4339,7 @@
         <v>161</v>
       </c>
       <c r="E20" s="2">
-        <f>10000/E12</f>
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>114</v>
@@ -4350,6 +4364,9 @@
       <c r="C21" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="E21" s="2">
+        <v>0.3</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>114</v>
       </c>
@@ -4370,17 +4387,78 @@
       <c r="B22" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="2">
-        <v>-1</v>
+      <c r="E22" s="2">
+        <v>0.7</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="G22" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="H22" t="s">
         <v>120</v>
       </c>
       <c r="I22" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>406</v>
+      </c>
+      <c r="B23" t="s">
+        <v>407</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" t="s">
+        <v>240</v>
+      </c>
+      <c r="J23" t="s">
+        <v>241</v>
+      </c>
+      <c r="K23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>408</v>
+      </c>
+      <c r="B24" t="s">
+        <v>409</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" t="s">
+        <v>249</v>
+      </c>
+      <c r="J24" t="s">
+        <v>250</v>
+      </c>
+      <c r="K24" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4393,7 +4471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
